--- a/Records of Technical Work.xlsx
+++ b/Records of Technical Work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>DATE</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Uploaded all the datasets into Google Drive and decided to use Pytorch library for the project</t>
+  </si>
+  <si>
+    <t>Implemented Feed Forward Neural Network model and Convolutional Neural Network. The Feed Forward Neural Network achieved final accuracy of 88.69% on Fruits-360 dataset. Whereas, Convolutional Neural Network achieved accuracy of 95% on Fruits-360 dataset.</t>
+  </si>
+  <si>
+    <t>Apply different algorithms to the Fruits-360 dataset and also combine Fruits-360 dataset with another dataset (waste), to see the results.</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -127,6 +133,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,6 +463,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>44232</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Records of Technical Work.xlsx
+++ b/Records of Technical Work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DATE</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Find a suitable platform to load the datasets in.</t>
   </si>
   <si>
-    <t xml:space="preserve">Applied Logistic Regression using Pytorch and tested it with combined waste dataset. The achieved accuracy is 50% which is not much at all. However, testing Logistic Regression on full dataset (Fruits-360 and combined Waste dataset) achieved accuracy of </t>
-  </si>
-  <si>
     <t>Apply different machine learning algorithms to see how they differ in time and accuracy with the ones which were already used. Start commenting the code appropriately.</t>
   </si>
   <si>
@@ -69,6 +66,21 @@
   </si>
   <si>
     <t>Applied Feed Forward Neural Network model and Convolutional Neural Network. The Feed Forward Neural Network achieved final accuracy of 88.69% on Fruits-360 dataset. Whereas, Convolutional Neural Network achieved accuracy of 90% on Fruits-360 dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applied ResNet 18 using PyTorch and tested it with the combined waste dataset. The achieved accuracy is 95% which is so far the best accuracy among all models. </t>
+  </si>
+  <si>
+    <t>Applied Logistic Regression using Pytorch and tested it with combined waste dataset. The achieved accuracy is 50% which is not much at all.</t>
+  </si>
+  <si>
+    <t>Start commenting the code and put references of websites which were used to produce the program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All references and code comments were provided. The program is fully commented and working perfectly. </t>
+  </si>
+  <si>
+    <t>No further work required.</t>
   </si>
 </sst>
 </file>
@@ -542,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +635,7 @@
         <v>44232</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -634,21 +646,43 @@
         <v>44235</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
-        <v>44236</v>
+        <v>44242</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>11</v>
+    </row>
+    <row r="8" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>44237</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>44297</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
